--- a/team_specific_matrix/Southeastern La._B.xlsx
+++ b/team_specific_matrix/Southeastern La._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1917098445595855</v>
+        <v>0.1983805668016194</v>
       </c>
       <c r="C2">
-        <v>0.5803108808290155</v>
+        <v>0.5627530364372469</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0155440414507772</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1347150259067358</v>
+        <v>0.1376518218623482</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07772020725388601</v>
+        <v>0.08502024291497975</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01739130434782609</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02608695652173913</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7652173913043478</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.191304347826087</v>
+        <v>0.1690140845070423</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6785714285714286</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03529411764705882</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01176470588235294</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07058823529411765</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3470588235294118</v>
+        <v>0.3395348837209302</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01176470588235294</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1470588235294118</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="R6">
-        <v>0.06470588235294118</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="S6">
-        <v>0.3117647058823529</v>
+        <v>0.3116279069767442</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05714285714285714</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01428571428571429</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="E7">
-        <v>0.007142857142857143</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1642857142857143</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01428571428571429</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1</v>
+        <v>0.1292134831460674</v>
       </c>
       <c r="R7">
-        <v>0.1571428571428571</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="S7">
-        <v>0.4357142857142857</v>
+        <v>0.4157303370786517</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06840390879478828</v>
+        <v>0.07235142118863049</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01954397394136808</v>
+        <v>0.01808785529715762</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002583979328165375</v>
       </c>
       <c r="F8">
-        <v>0.04560260586319218</v>
+        <v>0.041343669250646</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1237785016286645</v>
+        <v>0.1291989664082687</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009771986970684038</v>
+        <v>0.0103359173126615</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1628664495114006</v>
+        <v>0.1679586563307494</v>
       </c>
       <c r="R8">
-        <v>0.1237785016286645</v>
+        <v>0.1266149870801034</v>
       </c>
       <c r="S8">
-        <v>0.4462540716612378</v>
+        <v>0.4315245478036176</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1210191082802548</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006369426751592357</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05732484076433121</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08280254777070063</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02547770700636943</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1656050955414013</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="R9">
-        <v>0.1082802547770701</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="S9">
-        <v>0.4331210191082803</v>
+        <v>0.4148936170212766</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053763440860215</v>
+        <v>0.1078348778433024</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01827956989247312</v>
+        <v>0.0160067396798652</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07526881720430108</v>
+        <v>0.07497893850042123</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1161290322580645</v>
+        <v>0.1204717775905644</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02365591397849462</v>
+        <v>0.02358887952822241</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1849462365591398</v>
+        <v>0.1946082561078349</v>
       </c>
       <c r="R10">
-        <v>0.08602150537634409</v>
+        <v>0.08845829823083404</v>
       </c>
       <c r="S10">
-        <v>0.3903225806451613</v>
+        <v>0.3740522325189554</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1408450704225352</v>
+        <v>0.1360294117647059</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07511737089201878</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="K11">
-        <v>0.2065727699530517</v>
+        <v>0.2095588235294118</v>
       </c>
       <c r="L11">
-        <v>0.5539906103286385</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02347417840375587</v>
+        <v>0.02205882352941177</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7698412698412699</v>
+        <v>0.7639751552795031</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1428571428571428</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="K12">
-        <v>0.01587301587301587</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="L12">
-        <v>0.04761904761904762</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02380952380952381</v>
+        <v>0.01863354037267081</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.72</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.24</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.049079754601227</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1533742331288344</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I15">
-        <v>0.06748466257668712</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="J15">
-        <v>0.3742331288343558</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="K15">
-        <v>0.03680981595092025</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006134969325153374</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="N15">
-        <v>0.006134969325153374</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O15">
-        <v>0.03680981595092025</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2699386503067485</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.016</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="I16">
-        <v>0.12</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="J16">
-        <v>0.344</v>
+        <v>0.3710691823899371</v>
       </c>
       <c r="K16">
-        <v>0.08799999999999999</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.016</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.048</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.168</v>
+        <v>0.169811320754717</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02777777777777778</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1736111111111111</v>
+        <v>0.1758530183727034</v>
       </c>
       <c r="I17">
-        <v>0.125</v>
+        <v>0.1076115485564304</v>
       </c>
       <c r="J17">
-        <v>0.3819444444444444</v>
+        <v>0.4041994750656168</v>
       </c>
       <c r="K17">
-        <v>0.0763888888888889</v>
+        <v>0.08398950131233596</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02083333333333333</v>
+        <v>0.01837270341207349</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.05774278215223097</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1319444444444444</v>
+        <v>0.1286089238845144</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04166666666666666</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1845238095238095</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="I18">
-        <v>0.08928571428571429</v>
+        <v>0.0947867298578199</v>
       </c>
       <c r="J18">
-        <v>0.3273809523809524</v>
+        <v>0.3601895734597156</v>
       </c>
       <c r="K18">
-        <v>0.119047619047619</v>
+        <v>0.0947867298578199</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08928571428571429</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.130952380952381</v>
+        <v>0.1469194312796208</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01444788441692466</v>
+        <v>0.01524132091447926</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1888544891640867</v>
+        <v>0.1947502116850127</v>
       </c>
       <c r="I19">
-        <v>0.08359133126934984</v>
+        <v>0.0821337849280271</v>
       </c>
       <c r="J19">
-        <v>0.3962848297213623</v>
+        <v>0.388653683319221</v>
       </c>
       <c r="K19">
-        <v>0.1104231166150671</v>
+        <v>0.1117696867061812</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01651186790505676</v>
+        <v>0.01947502116850127</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06914344685242518</v>
+        <v>0.07197290431837426</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1207430340557276</v>
+        <v>0.1160033869602032</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southeastern La._B.xlsx
+++ b/team_specific_matrix/Southeastern La._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1983805668016194</v>
+        <v>0.1992619926199262</v>
       </c>
       <c r="C2">
-        <v>0.5627530364372469</v>
+        <v>0.5645756457564576</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01619433198380567</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1376518218623482</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08502024291497975</v>
+        <v>0.07749077490774908</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01408450704225352</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02816901408450704</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7887323943661971</v>
+        <v>0.7756410256410257</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1690140845070423</v>
+        <v>0.1858974358974359</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5945945945945946</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3243243243243243</v>
+        <v>0.3170731707317073</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03255813953488372</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0186046511627907</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06976744186046512</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3395348837209302</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0186046511627907</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1441860465116279</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="R6">
-        <v>0.06511627906976744</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="S6">
-        <v>0.3116279069767442</v>
+        <v>0.3026315789473684</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06179775280898876</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02247191011235955</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="E7">
-        <v>0.005617977528089887</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="F7">
-        <v>0.05617977528089887</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1573033707865168</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01685393258426966</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1292134831460674</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="R7">
-        <v>0.1348314606741573</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="S7">
-        <v>0.4157303370786517</v>
+        <v>0.4248704663212435</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07235142118863049</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01808785529715762</v>
+        <v>0.01678657074340528</v>
       </c>
       <c r="E8">
-        <v>0.002583979328165375</v>
+        <v>0.002398081534772182</v>
       </c>
       <c r="F8">
-        <v>0.041343669250646</v>
+        <v>0.03836930455635491</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1291989664082687</v>
+        <v>0.1199040767386091</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0103359173126615</v>
+        <v>0.01199040767386091</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1679586563307494</v>
+        <v>0.1750599520383693</v>
       </c>
       <c r="R8">
-        <v>0.1266149870801034</v>
+        <v>0.1294964028776978</v>
       </c>
       <c r="S8">
-        <v>0.4315245478036176</v>
+        <v>0.4316546762589928</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1117021276595745</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01595744680851064</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06914893617021277</v>
+        <v>0.06435643564356436</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1063829787234043</v>
+        <v>0.103960396039604</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02127659574468085</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1595744680851064</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="R9">
-        <v>0.101063829787234</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="S9">
-        <v>0.4148936170212766</v>
+        <v>0.4306930693069307</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1078348778433024</v>
+        <v>0.1086786551993745</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0160067396798652</v>
+        <v>0.01641907740422205</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07497893850042123</v>
+        <v>0.0727130570758405</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1204717775905644</v>
+        <v>0.1180609851446442</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02358887952822241</v>
+        <v>0.0218921032056294</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1946082561078349</v>
+        <v>0.200938232994527</v>
       </c>
       <c r="R10">
-        <v>0.08845829823083404</v>
+        <v>0.08522283033620015</v>
       </c>
       <c r="S10">
-        <v>0.3740522325189554</v>
+        <v>0.3760750586395621</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1360294117647059</v>
+        <v>0.1389830508474576</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07352941176470588</v>
+        <v>0.07457627118644068</v>
       </c>
       <c r="K11">
-        <v>0.2095588235294118</v>
+        <v>0.2067796610169491</v>
       </c>
       <c r="L11">
-        <v>0.5588235294117647</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02205882352941177</v>
+        <v>0.02033898305084746</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7639751552795031</v>
+        <v>0.76</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1677018633540373</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="K12">
-        <v>0.0124223602484472</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="L12">
-        <v>0.03726708074534162</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01863354037267081</v>
+        <v>0.02285714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2424242424242424</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04326923076923077</v>
+        <v>0.04</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1422222222222222</v>
       </c>
       <c r="I15">
-        <v>0.07211538461538461</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.3557692307692308</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="K15">
-        <v>0.05288461538461538</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004807692307692308</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="N15">
-        <v>0.004807692307692308</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="O15">
-        <v>0.0625</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2488888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01886792452830189</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1886792452830189</v>
+        <v>0.1875</v>
       </c>
       <c r="I16">
-        <v>0.09433962264150944</v>
+        <v>0.08522727272727272</v>
       </c>
       <c r="J16">
-        <v>0.3710691823899371</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="K16">
-        <v>0.1069182389937107</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01257861635220126</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03773584905660377</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.169811320754717</v>
+        <v>0.1590909090909091</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02362204724409449</v>
+        <v>0.02386634844868735</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1758530183727034</v>
+        <v>0.1742243436754177</v>
       </c>
       <c r="I17">
-        <v>0.1076115485564304</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="J17">
-        <v>0.4041994750656168</v>
+        <v>0.4033412887828162</v>
       </c>
       <c r="K17">
-        <v>0.08398950131233596</v>
+        <v>0.09069212410501193</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01837270341207349</v>
+        <v>0.01670644391408115</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05774278215223097</v>
+        <v>0.05489260143198091</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1286089238845144</v>
+        <v>0.1217183770883055</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04265402843601896</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1658767772511848</v>
+        <v>0.16289592760181</v>
       </c>
       <c r="I18">
-        <v>0.0947867298578199</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="J18">
-        <v>0.3601895734597156</v>
+        <v>0.3574660633484163</v>
       </c>
       <c r="K18">
-        <v>0.0947867298578199</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01895734597156398</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07582938388625593</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1469194312796208</v>
+        <v>0.1447963800904978</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01524132091447926</v>
+        <v>0.01566170712607674</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1947502116850127</v>
+        <v>0.1957713390759593</v>
       </c>
       <c r="I19">
-        <v>0.0821337849280271</v>
+        <v>0.07909162098668755</v>
       </c>
       <c r="J19">
-        <v>0.388653683319221</v>
+        <v>0.3876272513703994</v>
       </c>
       <c r="K19">
-        <v>0.1117696867061812</v>
+        <v>0.110415035238841</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01947502116850127</v>
+        <v>0.01957713390759593</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07197290431837426</v>
+        <v>0.07361002349256068</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1160033869602032</v>
+        <v>0.1182458888018794</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Southeastern La._B.xlsx
+++ b/team_specific_matrix/Southeastern La._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1992619926199262</v>
+        <v>0.2041522491349481</v>
       </c>
       <c r="C2">
-        <v>0.5645756457564576</v>
+        <v>0.5501730103806228</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01476014760147601</v>
+        <v>0.01384083044982699</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1439114391143911</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07749077490774908</v>
+        <v>0.08650519031141868</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01282051282051282</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02564102564102564</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7756410256410257</v>
+        <v>0.7701863354037267</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1858974358974359</v>
+        <v>0.1925465838509317</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07317073170731707</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6097560975609756</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3170731707317073</v>
+        <v>0.2954545454545455</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03508771929824561</v>
+        <v>0.0371900826446281</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02192982456140351</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07017543859649122</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3421052631578947</v>
+        <v>0.3264462809917356</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01754385964912281</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1491228070175439</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="R6">
-        <v>0.06140350877192982</v>
+        <v>0.06198347107438017</v>
       </c>
       <c r="S6">
-        <v>0.3026315789473684</v>
+        <v>0.3223140495867768</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07253886010362694</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02072538860103627</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="E7">
-        <v>0.005181347150259068</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F7">
-        <v>0.06217616580310881</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1450777202072539</v>
+        <v>0.1483253588516746</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02072538860103627</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1191709844559585</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="R7">
-        <v>0.1295336787564767</v>
+        <v>0.1291866028708134</v>
       </c>
       <c r="S7">
-        <v>0.4248704663212435</v>
+        <v>0.4162679425837321</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07434052757793765</v>
+        <v>0.07061503416856492</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01678657074340528</v>
+        <v>0.01594533029612756</v>
       </c>
       <c r="E8">
-        <v>0.002398081534772182</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="F8">
-        <v>0.03836930455635491</v>
+        <v>0.03644646924829157</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1199040767386091</v>
+        <v>0.1230068337129841</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01199040767386091</v>
+        <v>0.01138952164009112</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1750599520383693</v>
+        <v>0.1708428246013667</v>
       </c>
       <c r="R8">
-        <v>0.1294964028776978</v>
+        <v>0.1298405466970387</v>
       </c>
       <c r="S8">
-        <v>0.4316546762589928</v>
+        <v>0.4396355353075171</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1089108910891089</v>
+        <v>0.1069767441860465</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0198019801980198</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06435643564356436</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.103960396039604</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0198019801980198</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1584158415841584</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="R9">
-        <v>0.09405940594059406</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="S9">
-        <v>0.4306930693069307</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1086786551993745</v>
+        <v>0.1064446053584359</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01641907740422205</v>
+        <v>0.01737871107892831</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0727130570758405</v>
+        <v>0.07385952208544533</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1180609851446442</v>
+        <v>0.1194786386676322</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0218921032056294</v>
+        <v>0.02172338884866039</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.200938232994527</v>
+        <v>0.1976828385228095</v>
       </c>
       <c r="R10">
-        <v>0.08522283033620015</v>
+        <v>0.0890658942795076</v>
       </c>
       <c r="S10">
-        <v>0.3760750586395621</v>
+        <v>0.3743664011585807</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1389830508474576</v>
+        <v>0.1335403726708075</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07457627118644068</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="K11">
-        <v>0.2067796610169491</v>
+        <v>0.2018633540372671</v>
       </c>
       <c r="L11">
-        <v>0.559322033898305</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02033898305084746</v>
+        <v>0.01863354037267081</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.76</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1714285714285714</v>
+        <v>0.1761658031088083</v>
       </c>
       <c r="K12">
-        <v>0.01142857142857143</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="L12">
-        <v>0.03428571428571429</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02285714285714286</v>
+        <v>0.02072538860103627</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1422222222222222</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="I15">
-        <v>0.07111111111111111</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="J15">
-        <v>0.3733333333333334</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K15">
-        <v>0.05333333333333334</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004444444444444444</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="N15">
-        <v>0.004444444444444444</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="O15">
-        <v>0.06222222222222222</v>
+        <v>0.06995884773662552</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2488888888888889</v>
+        <v>0.2510288065843622</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02272727272727273</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1875</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I16">
-        <v>0.08522727272727272</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="J16">
-        <v>0.3863636363636364</v>
+        <v>0.3837837837837838</v>
       </c>
       <c r="K16">
-        <v>0.1136363636363636</v>
+        <v>0.1135135135135135</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01136363636363636</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03409090909090909</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1590909090909091</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02386634844868735</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1742243436754177</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I17">
-        <v>0.1145584725536993</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J17">
-        <v>0.4033412887828162</v>
+        <v>0.4072398190045249</v>
       </c>
       <c r="K17">
-        <v>0.09069212410501193</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01670644391408115</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05489260143198091</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1217183770883055</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04072398190045249</v>
+        <v>0.03688524590163934</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.16289592760181</v>
+        <v>0.1598360655737705</v>
       </c>
       <c r="I18">
-        <v>0.09954751131221719</v>
+        <v>0.1024590163934426</v>
       </c>
       <c r="J18">
-        <v>0.3574660633484163</v>
+        <v>0.3647540983606558</v>
       </c>
       <c r="K18">
-        <v>0.09049773755656108</v>
+        <v>0.09426229508196721</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02262443438914027</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08144796380090498</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1447963800904978</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01566170712607674</v>
+        <v>0.01605839416058394</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1957713390759593</v>
+        <v>0.1912408759124088</v>
       </c>
       <c r="I19">
-        <v>0.07909162098668755</v>
+        <v>0.0781021897810219</v>
       </c>
       <c r="J19">
-        <v>0.3876272513703994</v>
+        <v>0.3897810218978102</v>
       </c>
       <c r="K19">
-        <v>0.110415035238841</v>
+        <v>0.1153284671532847</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01957713390759593</v>
+        <v>0.01897810218978102</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07361002349256068</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1182458888018794</v>
+        <v>0.1175182481751825</v>
       </c>
     </row>
   </sheetData>
